--- a/Assignment_Financial_Engineering/Option_chain_15102021.xlsx
+++ b/Assignment_Financial_Engineering/Option_chain_15102021.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudioolivelli/Desktop/S20. Financial Engineering/Assignment_Financial_Engineering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudioolivelli/Documents/MATLAB/Matlab_FinEngineering/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C993E2E8-01A7-C247-98C4-DE3E03D235D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B1565E-8E27-A144-88DA-5EF00BF3B234}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="options" sheetId="4" r:id="rId1"/>
-    <sheet name="interest_rates" sheetId="2" r:id="rId2"/>
-    <sheet name="Stock" sheetId="3" r:id="rId3"/>
+    <sheet name="interest_rates_calculation" sheetId="2" r:id="rId2"/>
+    <sheet name="interest_rate" sheetId="5" r:id="rId3"/>
+    <sheet name="Stock" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -527,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72045078-80EF-F848-9CA9-38B3C4DC6546}">
   <dimension ref="A1:K497"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -11799,7 +11800,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M10" sqref="A1:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12202,10 +12203,105 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32599802-56F6-5746-9A5A-A2B6F8D2E4E5}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1">
+        <v>180</v>
+      </c>
+      <c r="E1" s="1">
+        <v>365</v>
+      </c>
+      <c r="F1" s="1">
+        <v>730</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1095</v>
+      </c>
+      <c r="H1" s="1">
+        <f>5*365</f>
+        <v>1825</v>
+      </c>
+      <c r="I1" s="1">
+        <f>7*365</f>
+        <v>2555</v>
+      </c>
+      <c r="J1" s="1">
+        <v>3650</v>
+      </c>
+      <c r="K1" s="1">
+        <f>20*365</f>
+        <v>7300</v>
+      </c>
+      <c r="L1" s="1">
+        <f>30*365</f>
+        <v>10950</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.02</v>
+      </c>
+      <c r="B2">
+        <v>1.8571428571428572E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>3.8571428571428576E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.06</v>
+      </c>
+      <c r="F2">
+        <v>0.16428571428571431</v>
+      </c>
+      <c r="G2">
+        <v>0.35428571428571426</v>
+      </c>
+      <c r="H2">
+        <v>0.89714285714285702</v>
+      </c>
+      <c r="I2">
+        <v>1.3571428571428572</v>
+      </c>
+      <c r="J2">
+        <v>1.6857142857142857</v>
+      </c>
+      <c r="K2">
+        <v>2.2485714285714287</v>
+      </c>
+      <c r="L2">
+        <v>2.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF3CDC2-1696-224B-8F86-3032FBA0131C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
